--- a/biology/Zoologie/Aleuron_neglectum/Aleuron_neglectum.xlsx
+++ b/biology/Zoologie/Aleuron_neglectum/Aleuron_neglectum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aleuron neglectum est une espèce de lépidoptères (papillons) de la famille des Sphingidae, sous-famille des Macroglossinae, de la tribu des Dilophonotini et du genre Aleuron . 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure des ailes varie de 48 à 53 mm. 
 La coloration est très similaire à celle de Aleuron iphis, dont il se distingue facilement par la présence d'une tache noire (jamais brune) à la partie médiane de la base de la face ventrale de l'aile antérieure. Une autre différence par rapport à Aleuron iphis est la bande blanche dans le premier segment de l'abdomen (qui peut être très subtile ou complètement absente selon D'Abrera, 1986). L'appareil génital mâle est semblable à celui de A. iphis, mais révèle un gnathos assez court et un peu plus courbé. 
@@ -545,7 +559,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 L'espèce est connue au Mexique, Belize, Guatemala, Nicaragua, Costa Rica, Venezuela, Bolivie, Pérou, Guyane et Brésil.
@@ -577,7 +593,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En Guyane, les adultes volent en mars, août et octobre. Au Brésil, en février et mai. Ils visitent les flaques d'eau et souvent le nectar des fleurs de Duranta repens.
 Les chenilles se nourrissent sur Doliocarpus dentatus, Curatella americana et probablement d'autres espèces de Dilleniaceae.</t>
@@ -608,12 +626,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Aleuron neglectum a été décrite par les entomologistes Lionel Walter Rothschild et Karl Jordan en 1903[1].
-La localité type Rio Cachyaco, au Pérou.
-Synonymie
-Aleuron paraguayana Clark, 1931
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Aleuron neglectum a été décrite par les entomologistes Lionel Walter Rothschild et Karl Jordan en 1903.
+La localité type Rio Cachyaco, au Pérou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aleuron_neglectum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aleuron_neglectum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aleuron paraguayana Clark, 1931
 Aleuron leo Clark, 1935
 Rhodosoma flavidus Zhu &amp; Wang, 1997
 Aleuron flavidus (Zhu &amp; Wang, 1997)</t>
